--- a/medicine/Pharmacie/IQVIA/IQVIA.xlsx
+++ b/medicine/Pharmacie/IQVIA/IQVIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 IQVIA, anciennement Quintiles et IMS Health, Inc, est une multinationale américaine experte des données de santé à la croisée de deux univers: la santé et la technologie. Depuis plus de 60 ans, elle fournit des essais cliniques de phase I-IV et des services et d'analyse associés à la donnée de santé, y compris les services de conseil. 
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours de l'année 2016, Quintiles a fusionné avec IMS Health devenant ainsi QuintilesIMS[1]. Avant la transaction, IMS Health était une entreprise américaine vendant des études, du conseil et du service pour les industries du médicament et les acteurs de santé et Quintiles était une entreprise américaine leader sur le marché des études cliniques. 
-En novembre 2017, la société a adopté le nouveau nom d'IQVIA et a changé son symbole boursier NYSE pour IQV[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l'année 2016, Quintiles a fusionné avec IMS Health devenant ainsi QuintilesIMS. Avant la transaction, IMS Health était une entreprise américaine vendant des études, du conseil et du service pour les industries du médicament et les acteurs de santé et Quintiles était une entreprise américaine leader sur le marché des études cliniques. 
+En novembre 2017, la société a adopté le nouveau nom d'IQVIA et a changé son symbole boursier NYSE pour IQV.
 </t>
         </is>
       </c>
@@ -545,11 +559,48 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">IQVIA s'appuie sur les bases de données, sur son expertise et sur ses outils d'analyse pour apporter des services et des solutions de conseil aux acteurs du système de santé. Grâce à l'utilisation de méthodes innovantes telles que l'intelligence artificielle, IQVIA cherche à contribuer à l'amélioration de la prise en charge des patients et au développement de la médecine de demain.
-En France
-IQVIA offre ses services à l'ensemble des acteurs du système de soins, comme les agences de santé publique, les assurances complémentaires, les biotechnologies, l'industrie du médicament et des produits de la santé, les offreurs de soins et les MedTech.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IQVIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/IQVIA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IQVIA offre ses services à l'ensemble des acteurs du système de soins, comme les agences de santé publique, les assurances complémentaires, les biotechnologies, l'industrie du médicament et des produits de la santé, les offreurs de soins et les MedTech.
 Les principaux domaines d'expertises proposés sont:
 Etudes et recherche clinique pour le développement de nouveaux traitements
 Conseil en stratégie d’accès au marché, de commercialisation et de suivi en vie réelle des produits de santé
@@ -559,45 +610,12 @@
 Des données médicalisées anonymisées, collectées via un partenariat entre IQVIA et de nombreux médecins et professionnels de santé
 La base OneKey, une base de données des professionnels de santé en France
 IQVIA réalise également des études à partir des données publiques de l’Assurance Maladie
-Grâce à l’analyse de ces données, IQVIA produit des analyses à destination de ses clients, qui ont pour vocation d’étudier les parcours de soins des patients, d’analyser la consommation médicamenteuse et de préventions des situations à risques[3]. Quelques exemples d’utilisation des données de santé par IQVIA :
-Analyse de l’impact d’une mauvaise observance médicamenteuse, enjeu clé pour la santé, sur l’économie : plus de 9 milliards d’euros d’économies potentielles pourraient être réalisées en une seule année en améliorant l’observance des pathologies chroniques [4],[5],[6],[7]:
-Prédiction de l’arrivée de l’épidémie de grippe annuelle, en collaboration avec le Réseau Sentinelles[8],[9].
-Evaluation des marges d’économie pour l’Assurance Maladie, via l’utilisation de la télémédecine pour fluidifier les parcours de soins dans certaines pathologies[10].
-Dans le cadre de la gestion de l’épidémie de COVID-19, IQVIA a mis à disposition des autorités de santé en France plusieurs jeux de données et analyses, comme la consommation de tests antigéniques quotidienne [11],[12],[13],[14].
-L’ensemble des activités d’IQVIA, qu’elles concernent la collecte, l’hébergement ou le traitement de données de santé, se conforme aux règles applicables en matière de protection des données personnelles [15],[16]: Loi Informatique et Liberté, Règlement Général sur la Protection des Données [RGPD], exigences émises par la CNIL[17]. IQVIA a ainsi par exemple obtenu deux autorisations de la CNIL pour ses activités de collectes de données pseudonymisées auprès des pharmacies en France[18].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IQVIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/IQVIA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Présence dans le monde</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au total, IQVIA emploie plus de 82 000 employés répartis dans plus de 100 pays dans le monde. Son chiffre d'affaires mondial est de 11 359 millions de USD en 2020.
-En France
-Présente en France depuis 1960, IQVIA France - basée à la Tour D2, 17 bis place des Reflets à Courbevoie (La Défense) en Île-de-France, est une société par actions simplifiées qui emploie 1 500 personnes.
+Grâce à l’analyse de ces données, IQVIA produit des analyses à destination de ses clients, qui ont pour vocation d’étudier les parcours de soins des patients, d’analyser la consommation médicamenteuse et de préventions des situations à risques. Quelques exemples d’utilisation des données de santé par IQVIA :
+Analyse de l’impact d’une mauvaise observance médicamenteuse, enjeu clé pour la santé, sur l’économie : plus de 9 milliards d’euros d’économies potentielles pourraient être réalisées en une seule année en améliorant l’observance des pathologies chroniques :
+Prédiction de l’arrivée de l’épidémie de grippe annuelle, en collaboration avec le Réseau Sentinelles,.
+Evaluation des marges d’économie pour l’Assurance Maladie, via l’utilisation de la télémédecine pour fluidifier les parcours de soins dans certaines pathologies.
+Dans le cadre de la gestion de l’épidémie de COVID-19, IQVIA a mis à disposition des autorités de santé en France plusieurs jeux de données et analyses, comme la consommation de tests antigéniques quotidienne .
+L’ensemble des activités d’IQVIA, qu’elles concernent la collecte, l’hébergement ou le traitement de données de santé, se conforme aux règles applicables en matière de protection des données personnelles ,: Loi Informatique et Liberté, Règlement Général sur la Protection des Données [RGPD], exigences émises par la CNIL. IQVIA a ainsi par exemple obtenu deux autorisations de la CNIL pour ses activités de collectes de données pseudonymisées auprès des pharmacies en France.
 </t>
         </is>
       </c>
@@ -623,16 +641,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Présence dans le monde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au total, IQVIA emploie plus de 82 000 employés répartis dans plus de 100 pays dans le monde. Son chiffre d'affaires mondial est de 11 359 millions de USD en 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IQVIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/IQVIA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Présence dans le monde</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présente en France depuis 1960, IQVIA France - basée à la Tour D2, 17 bis place des Reflets à Courbevoie (La Défense) en Île-de-France, est une société par actions simplifiées qui emploie 1 500 personnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IQVIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/IQVIA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marc Aubert et le Health Data Hub
-Principal architecte du projet Health Data Hub lancé en décembre 2019, Jean-Marc Aubert, directeur de la Drees, quitte le service public pour retourner travailler au service d'IQVIA en dirigeant la filiale française, fonction qu'il exercera de 2019 à 2023. Ce départ alimente alors un soupçon de conflit d'intérêts dès fin décembre 2019[19],[20], puis après la diffusion d'un reportage du magazine Cash Investigation en mai 2021[21]. Jean-Marc Aubert avait déjà travaillé dans cette société de 2013 à 2017, avant sa nomination à la Drees[22].  
-Dans un communiqué, IQVIA France assure qu'il n'y a « aucun conflit d'intérêt dans le parcours » de son directeur général, Jean-Marc Aubert, que « les changements de responsabilités de Jean-Marc Aubert ont tous été déclarés conformes par la commission de déontologie et ont fait l’objet d’une déclaration d’intérêt à la Haute Autorité pour la Transparence de la Vie Publique (HATVP) », et enfin que « le parcours de Jean-Marc Aubert s’est enrichi de responsabilités exercées au sein du public et du privé, sphères complémentaires pour développer une expertise fine des enjeux de santé »[23],[24].
-Enquête et contrôles de la CNIL
-IQVIA a noué un partenariat avec 14 000 pharmacies françaises, stocke et traite des données de santé de clients de pharmacies en France. La CNIL qui avait donné un accord, lance cependant une enquête et des contrôles après la diffusion d'un reportage du magazine Cash Investigation en mai 2021[25],[26],[27].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jean-Marc Aubert et le Health Data Hub</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Principal architecte du projet Health Data Hub lancé en décembre 2019, Jean-Marc Aubert, directeur de la Drees, quitte le service public pour retourner travailler au service d'IQVIA en dirigeant la filiale française, fonction qu'il exercera de 2019 à 2023. Ce départ alimente alors un soupçon de conflit d'intérêts dès fin décembre 2019 puis après la diffusion d'un reportage du magazine Cash Investigation en mai 2021. Jean-Marc Aubert avait déjà travaillé dans cette société de 2013 à 2017, avant sa nomination à la Drees.  
+Dans un communiqué, IQVIA France assure qu'il n'y a « aucun conflit d'intérêt dans le parcours » de son directeur général, Jean-Marc Aubert, que « les changements de responsabilités de Jean-Marc Aubert ont tous été déclarés conformes par la commission de déontologie et ont fait l’objet d’une déclaration d’intérêt à la Haute Autorité pour la Transparence de la Vie Publique (HATVP) », et enfin que « le parcours de Jean-Marc Aubert s’est enrichi de responsabilités exercées au sein du public et du privé, sphères complémentaires pour développer une expertise fine des enjeux de santé »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IQVIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/IQVIA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Enquête et contrôles de la CNIL</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IQVIA a noué un partenariat avec 14 000 pharmacies françaises, stocke et traite des données de santé de clients de pharmacies en France. La CNIL qui avait donné un accord, lance cependant une enquête et des contrôles après la diffusion d'un reportage du magazine Cash Investigation en mai 2021.
 </t>
         </is>
       </c>
